--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhirastogi/Documents/GitHub/RIT-DSCI-633-FDS/Syllabus/ProjectFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107987A1-D962-FC48-897A-25A3C2ED9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4479E21D-AA27-AF4C-BD32-CD4BD619D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4480" windowWidth="38400" windowHeight="23500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -735,277 +735,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="40" width="8.83203125" style="1"/>
-    <col min="41" max="41" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="4" customWidth="1"/>
+    <col min="5" max="40" width="8.83203125" style="1"/>
     <col min="44" max="44" width="8.83203125" style="1" customWidth="1"/>
     <col min="45" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="41:43" ht="26" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO2" s="8" t="s">
+    <row r="1" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO3" s="11">
+    <row r="3" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
         <v>374009912</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AQ3" s="13">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO4" s="11">
+    <row r="4" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <v>374008831</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="13">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO5" s="11">
+    <row r="5" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>378000113</v>
       </c>
-      <c r="AP5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AQ5" s="13">
+      <c r="D5" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO6" s="11">
+    <row r="6" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>374008911</v>
       </c>
-      <c r="AP6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="13">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO7" s="11">
+    <row r="7" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>379004701</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AQ7" s="13">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO8" s="11">
+    <row r="8" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>374009049</v>
       </c>
-      <c r="AP8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AQ8" s="13">
+      <c r="D8" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO9" s="11">
+    <row r="9" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>374009128</v>
       </c>
-      <c r="AP9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AQ9" s="13">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO10" s="11">
+    <row r="10" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>381001359</v>
       </c>
-      <c r="AP10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AQ10" s="13">
+      <c r="D10" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO11" s="11">
+    <row r="11" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>817002552</v>
       </c>
-      <c r="AP11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AQ11" s="13">
+      <c r="D11" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO12" s="11">
+    <row r="12" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>374009236</v>
       </c>
-      <c r="AP12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AQ12" s="13">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO13" s="11">
+    <row r="13" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>378001004</v>
       </c>
-      <c r="AP13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AQ13" s="13">
+      <c r="D13" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO14" s="11">
+    <row r="14" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>375000033</v>
       </c>
-      <c r="AP14" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AQ14" s="13">
+      <c r="D14" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO15" s="11">
+    <row r="15" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>573002045</v>
       </c>
-      <c r="AP15" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AQ15" s="13">
+      <c r="D15" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO16" s="11">
+    <row r="16" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>374009366</v>
       </c>
-      <c r="AP16" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AQ16" s="13">
+      <c r="D16" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO17" s="11">
+    <row r="17" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>765000434</v>
       </c>
-      <c r="AP17" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AQ17" s="13">
+      <c r="D17" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO18" s="11">
+    <row r="18" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>374009533</v>
       </c>
-      <c r="AP18" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AQ18" s="13">
+      <c r="D18" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO19" s="11">
+    <row r="19" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>776005612</v>
       </c>
-      <c r="AP19" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AQ19" s="13">
+      <c r="D19" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO20" s="11">
+    <row r="20" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>374009623</v>
       </c>
-      <c r="AP20" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AQ20" s="13">
+      <c r="D20" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO21" s="11">
+    <row r="21" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
         <v>378000556</v>
       </c>
-      <c r="AP21" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AQ21" s="13">
+      <c r="D21" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO22" s="11">
+    <row r="22" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>377006998</v>
       </c>
-      <c r="AP22" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AQ22" s="13">
+      <c r="D22" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO23" s="11">
+    <row r="23" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
         <v>81009401</v>
       </c>
-      <c r="AP23" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AQ23" s="13">
+      <c r="D23" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="41:43" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO24" s="11">
+    <row r="24" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
         <v>618006363</v>
       </c>
-      <c r="AP24" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AQ24" s="13">
+      <c r="D24" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AO3:AQ24">
-    <sortCondition ref="AP2:AP24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D24">
+    <sortCondition ref="C2:C24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1034,8 +1035,8 @@
         <v>43</v>
       </c>
       <c r="C1" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ref="C1:C17" ca="1" si="0">RANDBETWEEN(1,5)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1046,8 +1047,8 @@
         <v>21</v>
       </c>
       <c r="C2" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1058,8 +1059,8 @@
         <v>33</v>
       </c>
       <c r="C3" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1070,8 +1071,8 @@
         <v>25</v>
       </c>
       <c r="C4" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1082,8 +1083,8 @@
         <v>39</v>
       </c>
       <c r="C5" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1094,8 +1095,8 @@
         <v>23</v>
       </c>
       <c r="C6" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1106,8 +1107,8 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1118,8 +1119,8 @@
         <v>3</v>
       </c>
       <c r="C8" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1130,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1142,8 +1143,8 @@
         <v>45</v>
       </c>
       <c r="C10" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1154,8 +1155,8 @@
         <v>37</v>
       </c>
       <c r="C11" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1166,7 +1167,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1178,8 +1179,8 @@
         <v>19</v>
       </c>
       <c r="C13" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1190,8 +1191,8 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1202,8 +1203,8 @@
         <v>13</v>
       </c>
       <c r="C15" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1214,8 +1215,8 @@
         <v>15</v>
       </c>
       <c r="C16" s="7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1226,8 +1227,8 @@
         <v>41</v>
       </c>
       <c r="C17" s="6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="C19" s="6">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1262,7 +1263,7 @@
       </c>
       <c r="C20" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1274,7 +1275,7 @@
       </c>
       <c r="C21" s="6">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1286,7 +1287,7 @@
       </c>
       <c r="C22" s="6">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhirastogi/Documents/GitHub/RIT-DSCI-633-FDS/Syllabus/ProjectFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nxrvse/Documents/GitHub/RIT-DSCI-633-FDS/Syllabus/ProjectFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C372FA-466A-6C4B-BD0F-35842E6C8544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E7550-5AC5-6B45-AFA8-C008FFA3551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -622,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -898,18 +894,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5FF727-38CA-FE4E-8AFB-D4F64C959D4B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nxrvse/Documents/GitHub/RIT-DSCI-633-FDS/Syllabus/ProjectFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E7550-5AC5-6B45-AFA8-C008FFA3551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C4B173-7C4F-4446-984B-B208D6CC36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Teams!$B$2:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -136,12 +139,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -208,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,6 +259,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -619,7 +682,7 @@
   <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -647,21 +710,21 @@
     </row>
     <row r="3" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
-        <v>374009912</v>
+        <v>374008831</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>374008831</v>
+        <v>378000113</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -669,227 +732,232 @@
     </row>
     <row r="5" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>378000113</v>
+        <v>379004701</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="9">
+        <v>573002045</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>618006363</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>374009912</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>817002552</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>375000033</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>378000556</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>374008911</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D12" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>379004701</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="13" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>377006998</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>374009049</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D14" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+    <row r="15" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>765000434</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>81009401</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
         <v>374009128</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D17" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="18" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>374009623</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <v>381001359</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D19" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>817002552</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>374009236</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>378001004</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>375000033</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>573002045</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>374009366</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>765000434</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+    <row r="20" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <v>374009533</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D20" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+    <row r="21" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
         <v>776005612</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D21" s="20">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>374009623</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>378000556</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
-        <v>377006998</v>
+        <v>374009236</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>81009401</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3</v>
+      <c r="B23" s="9">
+        <v>378001004</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>618006363</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
+      <c r="B24" s="9">
+        <v>374009366</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D24">
-    <sortCondition ref="C2:C24"/>
+  <autoFilter ref="B2:D2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D24">
+      <sortCondition ref="D2:D24"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D26">
+    <sortCondition ref="C2:C26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nxrvse/Documents/GitHub/RIT-DSCI-633-FDS/Syllabus/ProjectFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C4B173-7C4F-4446-984B-B208D6CC36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0AC716-1CE5-B04A-A576-A3F12285C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
   <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -732,54 +732,54 @@
     </row>
     <row r="5" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>379004701</v>
+        <v>374009236</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>573002045</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="6">
+        <v>379004701</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
-        <v>618006363</v>
+        <v>573002045</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>374009912</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
+      <c r="B8" s="9">
+        <v>618006363</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
-        <v>817002552</v>
+        <v>374009912</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" s="14">
         <v>2</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="10" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
-        <v>375000033</v>
+        <v>817002552</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="14">
         <v>2</v>
@@ -798,32 +798,32 @@
     </row>
     <row r="11" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <v>378000556</v>
+        <v>375000033</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
-        <v>374008911</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="17">
-        <v>3</v>
+      <c r="B12" s="12">
+        <v>378000556</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
-        <v>377006998</v>
+        <v>374008911</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D13" s="17">
         <v>3</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="14" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
-        <v>374009049</v>
+        <v>377006998</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D14" s="17">
         <v>3</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="15" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
-        <v>765000434</v>
+        <v>374009049</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D15" s="17">
         <v>3</v>
@@ -853,32 +853,32 @@
     </row>
     <row r="16" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
-        <v>81009401</v>
+        <v>765000434</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
-        <v>374009128</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="20">
-        <v>4</v>
+      <c r="B17" s="15">
+        <v>81009401</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
-        <v>374009623</v>
+        <v>374009128</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D18" s="20">
         <v>4</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="19" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
-        <v>381001359</v>
+        <v>374009623</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D19" s="20">
         <v>4</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="20" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
-        <v>374009533</v>
+        <v>381001359</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="20">
         <v>4</v>
@@ -908,24 +908,24 @@
     </row>
     <row r="21" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
-        <v>776005612</v>
+        <v>374009533</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>374009236</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8">
-        <v>5</v>
+      <c r="B22" s="18">
+        <v>776005612</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
